--- a/ThesisMaeaurements/OsamuExp/OSKT - SU8 PEO 1.00 wtp/OSKT - SU8 PEO 1.00 wtp.xlsx
+++ b/ThesisMaeaurements/OsamuExp/OSKT - SU8 PEO 1.00 wtp/OSKT - SU8 PEO 1.00 wtp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B48599-5640-4D77-A9E9-7E630ADA5343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="7545" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -116,7 +117,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +130,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,7 +138,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,16 +168,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -209,7 +210,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -497,537 +504,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>1.2066699999999999</v>
       </c>
       <c r="B3" s="3">
         <v>6.2249999999999996E-3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>193.84200000000001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>35.095100000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>25.003</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>17.783300000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>1.21058</v>
       </c>
       <c r="B4" s="3">
         <v>7.80797E-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>155.04400000000001</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>70.144499999999994</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>25.001000000000001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>16.002099999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>1.1234599999999999</v>
       </c>
       <c r="B5" s="3">
         <v>9.8294200000000002E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>114.295</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>105.161</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>25.001000000000001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>15.094900000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>1.0744199999999999</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1.23762E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>86.813000000000002</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>140.232</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>25</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>15.1349</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>1.0421800000000001</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>1.5578E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>66.900499999999994</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>175.28700000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>25.001000000000001</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>14.3681</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>1.0206</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>1.96057E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>52.0563</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>210.298</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>24.998999999999999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>14.909800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>1.0046299999999999</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>2.4687400000000002E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>40.694000000000003</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>245.374</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>25.001000000000001</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>14.3809</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>0.991981</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>3.1079699999999998E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>31.917300000000001</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>280.39800000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>25</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>14.150600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>0.987792</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>3.9110499999999999E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>25.256399999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>315.42899999999997</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>25</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>13.035</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>0.98284700000000003</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>4.92475E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>19.9573</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>350.47699999999998</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>25</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>13.2707</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>0.98891099999999998</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>6.2002099999999997E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>15.9496</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>385.54899999999998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>25</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>13.2896</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>0.99737500000000001</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>7.80531E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>12.7782</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>420.59699999999998</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>25</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>13.154500000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>1.01213</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>9.82624E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>10.3003</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>455.68900000000002</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>25</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>13.113300000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>1.0336799999999999</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>0.123705</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>8.3560400000000001</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>490.76799999999997</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>25</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>12.6183</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>1.06725</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>0.15573799999999999</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>6.8528200000000004</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>525.82799999999997</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>25.001000000000001</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>12.5017</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>1.1176999999999999</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>0.19606100000000001</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>5.7007700000000003</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>560.83000000000004</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>24.998999999999999</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>12.0692</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>1.1661300000000001</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0.24682299999999999</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>4.7245799999999996</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>595.904</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>24.998999999999999</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>11.6012</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>1.22357</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>0.31074299999999999</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>3.9375399999999998</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>630.91499999999996</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>25</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>11.456200000000001</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>1.2943100000000001</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>0.39119399999999999</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>3.3086000000000002</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>665.904</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>25</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>11.040900000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>1.3924700000000001</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>0.49248700000000001</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>2.8274300000000001</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>700.98800000000006</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>25.001000000000001</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>10.597899999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>1.50552</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>0.62000200000000005</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>2.4282499999999998</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>736.02200000000005</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>24.998999999999999</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>10.3125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>1.6510499999999999</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>0.78053300000000003</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>2.1152899999999999</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>771.02</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>24.998999999999999</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>10.720599999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>1.7628699999999999</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>0.98263800000000001</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>1.7940100000000001</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>806.12400000000002</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>25</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>9.6916700000000002</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>1.6933199999999999</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>1.6933199999999999</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>841.16300000000001</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>25.001000000000001</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>8.8907500000000006</v>
       </c>
     </row>
@@ -1038,12 +1045,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1051,148 +1058,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
